--- a/Документация/Профиль.xlsx
+++ b/Документация/Профиль.xlsx
@@ -39,13 +39,13 @@
     <t>Операции</t>
   </si>
   <si>
-    <t>Отмена всех броней</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
     <t>think time</t>
+  </si>
+  <si>
+    <t>Поиск билетов без оплаты</t>
   </si>
 </sst>
 </file>
@@ -93,7 +93,14 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -104,6 +111,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B3:E8" totalsRowShown="0">
+  <autoFilter ref="B3:E8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Операции"/>
+    <tableColumn id="2" name="max" dataDxfId="1"/>
+    <tableColumn id="3" name="think time" dataDxfId="0"/>
+    <tableColumn id="4" name="VU"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +392,7 @@
   <dimension ref="B3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,10 +407,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -400,15 +420,31 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="D4" s="1">
+        <f>10.42-C4</f>
+        <v>10.01</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.5544</v>
+      </c>
+      <c r="D5" s="1">
+        <f>20.44-C5</f>
+        <v>19.8856</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -421,6 +457,9 @@
         <f xml:space="preserve"> 26.232 - C6</f>
         <v>26.0962</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -433,6 +472,9 @@
         <f xml:space="preserve"> 31.1741 - C7</f>
         <v>30.507899999999999</v>
       </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -445,8 +487,14 @@
         <f>10.9632 - C8</f>
         <v>10.866</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Документация/Профиль.xlsx
+++ b/Документация/Профиль.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>VU</t>
   </si>
@@ -46,13 +46,22 @@
   </si>
   <si>
     <t>Поиск билетов без оплаты</t>
+  </si>
+  <si>
+    <t>Интенсивность (план)</t>
+  </si>
+  <si>
+    <t>Интенсивность (факт)</t>
+  </si>
+  <si>
+    <t>Pacing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,13 +69,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,24 +132,197 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,15 +338,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B3:E8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B3:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B3:E8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Операции"/>
-    <tableColumn id="2" name="max" dataDxfId="1"/>
-    <tableColumn id="3" name="think time" dataDxfId="0"/>
-    <tableColumn id="4" name="VU"/>
+    <tableColumn id="1" name="Операции" dataDxfId="10"/>
+    <tableColumn id="2" name="max" dataDxfId="9"/>
+    <tableColumn id="3" name="think time" dataDxfId="8"/>
+    <tableColumn id="4" name="VU" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="F3:H8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="1">
+  <autoFilter ref="F3:H8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Интенсивность (план)" dataDxfId="3"/>
+    <tableColumn id="2" name="Интенсивность (факт)" dataDxfId="2"/>
+    <tableColumn id="3" name="Pacing" dataDxfId="0">
+      <calculatedColumnFormula>3600/Таблица2[[#This Row],[Интенсивность (факт)]]*Таблица1[[#This Row],[VU]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -389,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E8"/>
+  <dimension ref="B3:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,101 +638,166 @@
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.41</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <f>10.42-C4</f>
         <v>10.01</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
+      <c r="F4" s="5">
+        <v>50</v>
+      </c>
+      <c r="G4" s="5">
+        <v>50</v>
+      </c>
+      <c r="H4" s="6">
+        <f>3600/Таблица2[[#This Row],[Интенсивность (факт)]]*Таблица1[[#This Row],[VU]]</f>
+        <v>72</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.5544</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <f>20.44-C5</f>
         <v>19.8856</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
+      <c r="F5" s="5">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6">
+        <f>3600/Таблица2[[#This Row],[Интенсивность (факт)]]*Таблица1[[#This Row],[VU]]</f>
+        <v>240</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.1358</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <f xml:space="preserve"> 26.232 - C6</f>
         <v>26.0962</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
+      <c r="F6" s="5">
+        <v>87</v>
+      </c>
+      <c r="G6" s="5">
+        <v>90</v>
+      </c>
+      <c r="H6" s="6">
+        <f>3600/Таблица2[[#This Row],[Интенсивность (факт)]]*Таблица1[[#This Row],[VU]]</f>
+        <v>120</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.66620000000000001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <f xml:space="preserve"> 31.1741 - C7</f>
         <v>30.507899999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>3</v>
       </c>
+      <c r="F7" s="5">
+        <v>80</v>
+      </c>
+      <c r="G7" s="5">
+        <v>80</v>
+      </c>
+      <c r="H7" s="6">
+        <f>3600/Таблица2[[#This Row],[Интенсивность (факт)]]*Таблица1[[#This Row],[VU]]</f>
+        <v>135</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <f>10.9632 - C8</f>
         <v>10.866</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <f>159-88</f>
+        <v>71</v>
+      </c>
+      <c r="G8" s="5">
+        <v>72</v>
+      </c>
+      <c r="H8" s="6">
+        <f>3600/Таблица2[[#This Row],[Интенсивность (факт)]]*Таблица1[[#This Row],[VU]]</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Документация/Профиль.xlsx
+++ b/Документация/Профиль.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -95,9 +96,6 @@
     <t>Интенсивность</t>
   </si>
   <si>
-    <t>Скрипты</t>
-  </si>
-  <si>
     <t>Статистика</t>
   </si>
   <si>
@@ -107,9 +105,6 @@
     <t>Факт</t>
   </si>
   <si>
-    <t>Отмена всех броней</t>
-  </si>
-  <si>
     <t>Результаты</t>
   </si>
   <si>
@@ -126,6 +121,12 @@
   </si>
   <si>
     <t>Операции</t>
+  </si>
+  <si>
+    <t>Просмотр рейсов без удаления</t>
+  </si>
+  <si>
+    <t>Скрипты\Операции</t>
   </si>
 </sst>
 </file>
@@ -135,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +154,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -189,20 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -216,6 +196,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -378,8 +365,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -390,13 +377,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -430,103 +417,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -540,6 +451,84 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -822,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P47"/>
+  <dimension ref="C1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,12 +836,12 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -863,10 +852,10 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
@@ -1003,32 +992,32 @@
     </row>
     <row r="15" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="3:11" ht="63" x14ac:dyDescent="0.25">
       <c r="C18" s="18" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>22</v>
@@ -1207,38 +1196,38 @@
     </row>
     <row r="26" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="C27" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
@@ -1246,286 +1235,286 @@
       <c r="G29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="29" t="s">
+    <row r="30" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="39">
         <v>50</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="39">
         <v>50</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="39">
         <v>1</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="40">
         <f>3600/E30*F30</f>
         <v>72</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="38">
         <f t="shared" ref="H30:H31" si="0">E30/D30*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="26">
+    <row r="31" spans="3:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C31" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="39">
         <v>30</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="39">
         <v>30</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="39">
         <v>2</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="40">
         <f t="shared" ref="G31:G34" si="1">3600/E31*F31</f>
         <v>240</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="38">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="29" t="s">
+    <row r="32" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="39">
         <v>87</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="39">
         <v>90</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="39">
         <v>3</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="40">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="38">
         <f>E32/D32*100</f>
         <v>103.44827586206897</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="29" t="s">
+    <row r="33" spans="3:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C33" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="39">
         <v>80</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="39">
         <v>80</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="39">
         <v>3</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="40">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="38">
         <f t="shared" ref="H33:H34" si="2">E33/D33*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="31" t="s">
+    <row r="34" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="41">
         <v>71</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="41">
         <v>72</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="41">
         <v>1</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="42">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="43">
         <f t="shared" si="2"/>
         <v>101.40845070422534</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="3:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="54"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-    </row>
-    <row r="40" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="5">
-        <v>422</v>
-      </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="61" t="e">
-        <f>1-D40/E40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-    </row>
-    <row r="41" spans="3:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C41" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="5">
-        <v>282</v>
-      </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61" t="e">
-        <f t="shared" ref="F41:F46" si="3">1-D41/E41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="5">
-        <v>251</v>
-      </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="61" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-    </row>
-    <row r="43" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="5">
-        <v>175</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="61" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-    </row>
-    <row r="44" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C44" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="5">
-        <v>159</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="61" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-    </row>
-    <row r="45" spans="3:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C45" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="5">
-        <v>73</v>
-      </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="61" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-    </row>
-    <row r="46" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="5">
-        <v>326</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="61" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="58">
-        <f>SUM(D40:D46)</f>
-        <v>1688</v>
-      </c>
-      <c r="E47" s="35">
-        <f>SUM(E40:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="59"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C27:H28"/>
-    <mergeCell ref="C37:F38"/>
     <mergeCell ref="C16:K17"/>
     <mergeCell ref="C2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+    </row>
+    <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>422</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="35" t="e">
+        <f>1-D7/E7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>282</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35" t="e">
+        <f t="shared" ref="F8:F13" si="0">1-D8/E8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>251</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>175</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
+        <v>159</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>73</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>326</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="32">
+        <f>SUM(D7:D13)</f>
+        <v>1688</v>
+      </c>
+      <c r="E14" s="28">
+        <f>SUM(E7:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Документация/Профиль.xlsx
+++ b/Документация/Профиль.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Нагрузочное тестирование\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\Desktop\Нагрузочное тестирование\AppLine_LoadTesting\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +204,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -368,7 +375,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -434,7 +441,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,7 +455,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -475,6 +480,7 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -836,12 +842,12 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -852,10 +858,10 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
@@ -992,28 +998,28 @@
     </row>
     <row r="15" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="3:11" ht="63" x14ac:dyDescent="0.25">
       <c r="C18" s="18" t="s">
@@ -1196,25 +1202,25 @@
     </row>
     <row r="26" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -1240,111 +1246,111 @@
       </c>
     </row>
     <row r="30" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="37">
         <v>50</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="37">
         <v>50</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="37">
         <v>1</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="38">
         <f>3600/E30*F30</f>
         <v>72</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="36">
         <f t="shared" ref="H30:H31" si="0">E30/D30*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="3:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="37">
         <v>30</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="37">
         <v>30</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="37">
         <v>2</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="38">
         <f t="shared" ref="G31:G34" si="1">3600/E31*F31</f>
         <v>240</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="36">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="37">
         <v>87</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="37">
         <v>90</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="37">
         <v>3</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="38">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="36">
         <f>E32/D32*100</f>
         <v>103.44827586206897</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="37">
         <v>80</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="37">
         <v>80</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="37">
         <v>3</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="38">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="36">
         <f t="shared" ref="H33:H34" si="2">E33/D33*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="39">
         <v>71</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="39">
         <v>72</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="39">
         <v>1</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="40">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="41">
         <f t="shared" si="2"/>
         <v>101.40845070422534</v>
       </c>
@@ -1364,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,18 +1385,18 @@
   <sheetData>
     <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="18" t="s">
@@ -1402,119 +1408,134 @@
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5">
         <v>422</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="35" t="e">
+      <c r="E7" s="42">
+        <v>306</v>
+      </c>
+      <c r="F7" s="33">
         <f>1-D7/E7</f>
-        <v>#DIV/0!</v>
+        <v>-0.37908496732026142</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5">
         <v>282</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35" t="e">
+      <c r="E8" s="42">
+        <v>181</v>
+      </c>
+      <c r="F8" s="33">
         <f t="shared" ref="F8:F13" si="0">1-D8/E8</f>
-        <v>#DIV/0!</v>
+        <v>-0.55801104972375692</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5">
         <v>251</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="35" t="e">
+      <c r="E9" s="42">
+        <v>181</v>
+      </c>
+      <c r="F9" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.38674033149171261</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5">
         <v>175</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="35" t="e">
+      <c r="E10" s="42">
+        <v>153</v>
+      </c>
+      <c r="F10" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.14379084967320255</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5">
         <v>159</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="35" t="e">
+      <c r="E11" s="42">
+        <v>197</v>
+      </c>
+      <c r="F11" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19289340101522845</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="5">
         <v>73</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="35" t="e">
+      <c r="E12" s="42">
+        <v>43</v>
+      </c>
+      <c r="F12" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.69767441860465107</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5">
         <v>326</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="35" t="e">
+      <c r="E13" s="42">
+        <v>226</v>
+      </c>
+      <c r="F13" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.44247787610619471</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <f>SUM(D7:D13)</f>
         <v>1688</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <f>SUM(E7:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="33"/>
+        <v>1287</v>
+      </c>
+      <c r="F14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Документация/Профиль.xlsx
+++ b/Документация/Профиль.xlsx
@@ -375,7 +375,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -434,7 +434,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -534,6 +533,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -819,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,12 +847,12 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -858,10 +863,10 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
@@ -998,28 +1003,28 @@
     </row>
     <row r="15" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="3:11" ht="63" x14ac:dyDescent="0.25">
       <c r="C18" s="18" t="s">
@@ -1171,59 +1176,59 @@
     <row r="24" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="23">
+      <c r="E24" s="60">
         <f>SUM(D19:D23)</f>
         <v>318</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="60">
         <f>SUM(D20:D22)</f>
         <v>197</v>
       </c>
-      <c r="G24" s="23">
-        <f>87+88+37</f>
-        <v>212</v>
-      </c>
-      <c r="H24" s="23">
-        <f>87+88</f>
-        <v>175</v>
-      </c>
-      <c r="I24" s="23">
+      <c r="G24" s="60">
+        <f>SUM(D20:D22)</f>
+        <v>197</v>
+      </c>
+      <c r="H24" s="60">
+        <f>SUM(D21:D22)</f>
+        <v>167</v>
+      </c>
+      <c r="I24" s="60">
         <f>SUM(D22:D23)</f>
         <v>151</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="60">
         <f>D19</f>
         <v>50</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="61">
         <f>SUM(D19:D23)</f>
         <v>318</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
@@ -1241,116 +1246,116 @@
       <c r="G29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>50</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <v>50</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <v>1</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="37">
         <f>3600/E30*F30</f>
         <v>72</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="35">
         <f t="shared" ref="H30:H31" si="0">E30/D30*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="3:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>30</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="36">
         <v>30</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="36">
         <v>2</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="37">
         <f t="shared" ref="G31:G34" si="1">3600/E31*F31</f>
         <v>240</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>87</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <v>90</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="36">
         <v>3</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="37">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="35">
         <f>E32/D32*100</f>
         <v>103.44827586206897</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>80</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>80</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <v>3</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="37">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <f t="shared" ref="H33:H34" si="2">E33/D33*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="38">
         <v>71</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="38">
         <v>72</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="38">
         <v>1</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="39">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H34" s="41">
+      <c r="H34" s="40">
         <f t="shared" si="2"/>
         <v>101.40845070422534</v>
       </c>
@@ -1368,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F14"/>
+  <dimension ref="C3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,22 +1388,22 @@
     <col min="6" max="6" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="55" t="s">
+    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
-    </row>
-    <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="18" t="s">
         <v>31</v>
       </c>
@@ -1408,128 +1413,137 @@
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="29" t="s">
+    <row r="7" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
-        <v>422</v>
-      </c>
-      <c r="E7" s="42">
+      <c r="D7" s="63">
+        <v>318</v>
+      </c>
+      <c r="E7" s="41">
         <v>306</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <f>1-D7/E7</f>
-        <v>-0.37908496732026142</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="29" t="s">
+        <v>-3.9215686274509887E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5">
-        <v>282</v>
-      </c>
-      <c r="E8" s="42">
+        <v>197</v>
+      </c>
+      <c r="E8" s="41">
         <v>181</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <f t="shared" ref="F8:F13" si="0">1-D8/E8</f>
-        <v>-0.55801104972375692</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="29" t="s">
+        <v>-8.8397790055248615E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5">
-        <v>251</v>
-      </c>
-      <c r="E9" s="42">
+        <v>197</v>
+      </c>
+      <c r="E9" s="41">
         <v>181</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <f t="shared" si="0"/>
-        <v>-0.38674033149171261</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="29" t="s">
+        <v>-8.8397790055248615E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5">
-        <v>175</v>
-      </c>
-      <c r="E10" s="42">
+        <v>167</v>
+      </c>
+      <c r="E10" s="41">
         <v>153</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <f t="shared" si="0"/>
-        <v>-0.14379084967320255</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="29" t="s">
+        <v>-9.1503267973856106E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5">
-        <v>159</v>
-      </c>
-      <c r="E11" s="42">
+        <v>151</v>
+      </c>
+      <c r="E11" s="41">
         <v>197</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <f t="shared" si="0"/>
-        <v>0.19289340101522845</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="29" t="s">
+        <v>0.23350253807106602</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="5">
-        <v>73</v>
-      </c>
-      <c r="E12" s="42">
+        <v>50</v>
+      </c>
+      <c r="E12" s="41">
         <v>43</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <f t="shared" si="0"/>
-        <v>-0.69767441860465107</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="29" t="s">
+        <v>-0.16279069767441867</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5">
-        <v>326</v>
-      </c>
-      <c r="E13" s="42">
+        <v>318</v>
+      </c>
+      <c r="E13" s="41">
         <v>226</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <f t="shared" si="0"/>
-        <v>-0.44247787610619471</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="30" t="s">
+        <v>-0.40707964601769908</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <f>SUM(D7:D13)</f>
-        <v>1688</v>
-      </c>
-      <c r="E14" s="27">
+        <v>1398</v>
+      </c>
+      <c r="E14" s="26">
         <f>SUM(E7:E13)</f>
         <v>1287</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
